--- a/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/010_Quotes/EUR_010_CmsSpreadsQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/010_Quotes/EUR_010_CmsSpreadsQuotes.xlsx
@@ -10,9 +10,6 @@
     <sheet name="General Settings" sheetId="2" r:id="rId1"/>
     <sheet name="CmsSpreadsQuotes" sheetId="4" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$15</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Currency</t>
   </si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>TickValue</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -114,7 +114,7 @@
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -546,22 +546,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -858,7 +842,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="2" customWidth="1"/>
@@ -868,13 +852,13 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1">
+    <row r="1" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="2:5" s="1" customFormat="1" ht="15.75">
+    <row r="2" spans="2:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="47" t="s">
         <v>12</v>
       </c>
@@ -882,13 +866,13 @@
       <c r="D2" s="48"/>
       <c r="E2" s="49"/>
     </row>
-    <row r="3" spans="2:5" s="1" customFormat="1">
+    <row r="3" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="2:5" s="1" customFormat="1">
+    <row r="4" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
       <c r="C4" s="19" t="s">
         <v>7</v>
@@ -896,7 +880,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="2:5" s="1" customFormat="1">
+    <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13"/>
       <c r="C5" s="19" t="s">
         <v>6</v>
@@ -906,7 +890,7 @@
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="2:5" s="1" customFormat="1">
+    <row r="6" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="19" t="s">
         <v>13</v>
@@ -916,7 +900,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="2:5" s="1" customFormat="1">
+    <row r="7" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13"/>
       <c r="C7" s="19" t="s">
         <v>14</v>
@@ -926,18 +910,17 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1">
+    <row r="8" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
       <c r="C8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="20" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\040_SwaptionVolBootstrap\010_Quotes\</v>
+      <c r="D8" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1">
+    <row r="9" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13"/>
       <c r="C9" s="19" t="s">
         <v>16</v>
@@ -947,14 +930,14 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1">
+    <row r="10" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1"/>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="15.75">
+    <row r="11" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="47" t="s">
         <v>17</v>
       </c>
@@ -962,13 +945,13 @@
       <c r="D12" s="48"/>
       <c r="E12" s="49"/>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1">
+    <row r="13" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1">
+    <row r="14" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="19" t="s">
         <v>10</v>
@@ -978,7 +961,7 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1">
+    <row r="15" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="19" t="s">
         <v>0</v>
@@ -988,7 +971,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1">
+    <row r="16" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="19" t="s">
         <v>19</v>
@@ -998,7 +981,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="2:5" s="1" customFormat="1">
+    <row r="17" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="19" t="s">
         <v>23</v>
@@ -1008,93 +991,93 @@
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="2:5" s="1" customFormat="1">
+    <row r="18" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="2:5" s="1" customFormat="1"/>
-    <row r="20" spans="2:5" s="1" customFormat="1"/>
-    <row r="21" spans="2:5" s="1" customFormat="1"/>
-    <row r="22" spans="2:5" s="1" customFormat="1"/>
-    <row r="23" spans="2:5" s="1" customFormat="1"/>
-    <row r="24" spans="2:5" s="1" customFormat="1"/>
-    <row r="25" spans="2:5" s="1" customFormat="1"/>
-    <row r="26" spans="2:5" s="1" customFormat="1"/>
-    <row r="27" spans="2:5" s="1" customFormat="1"/>
-    <row r="28" spans="2:5" s="1" customFormat="1"/>
-    <row r="29" spans="2:5" s="1" customFormat="1"/>
-    <row r="30" spans="2:5" s="1" customFormat="1"/>
-    <row r="31" spans="2:5" s="1" customFormat="1"/>
-    <row r="32" spans="2:5" s="1" customFormat="1"/>
-    <row r="33" s="1" customFormat="1"/>
-    <row r="34" s="1" customFormat="1"/>
-    <row r="35" s="1" customFormat="1"/>
-    <row r="36" s="1" customFormat="1"/>
-    <row r="37" s="1" customFormat="1"/>
-    <row r="38" s="1" customFormat="1"/>
-    <row r="39" s="1" customFormat="1"/>
-    <row r="40" s="1" customFormat="1"/>
-    <row r="41" s="1" customFormat="1"/>
-    <row r="42" s="1" customFormat="1"/>
-    <row r="43" s="1" customFormat="1"/>
-    <row r="44" s="1" customFormat="1"/>
-    <row r="45" s="1" customFormat="1"/>
-    <row r="46" s="1" customFormat="1"/>
-    <row r="47" s="1" customFormat="1"/>
-    <row r="48" s="1" customFormat="1"/>
-    <row r="49" s="1" customFormat="1"/>
-    <row r="50" s="1" customFormat="1"/>
-    <row r="51" s="1" customFormat="1"/>
-    <row r="52" s="1" customFormat="1"/>
-    <row r="53" s="1" customFormat="1"/>
-    <row r="54" s="1" customFormat="1"/>
-    <row r="55" s="1" customFormat="1"/>
-    <row r="56" s="1" customFormat="1"/>
-    <row r="57" s="1" customFormat="1"/>
-    <row r="58" s="1" customFormat="1"/>
-    <row r="59" s="1" customFormat="1"/>
-    <row r="60" s="1" customFormat="1"/>
-    <row r="61" s="1" customFormat="1"/>
-    <row r="62" s="1" customFormat="1"/>
-    <row r="63" s="1" customFormat="1"/>
-    <row r="64" s="1" customFormat="1"/>
-    <row r="65" s="1" customFormat="1"/>
-    <row r="66" s="1" customFormat="1"/>
-    <row r="67" s="1" customFormat="1"/>
-    <row r="68" s="1" customFormat="1"/>
-    <row r="69" s="1" customFormat="1"/>
-    <row r="70" s="1" customFormat="1"/>
-    <row r="71" s="1" customFormat="1"/>
-    <row r="72" s="1" customFormat="1"/>
-    <row r="73" s="1" customFormat="1"/>
-    <row r="74" s="1" customFormat="1"/>
-    <row r="75" s="1" customFormat="1"/>
-    <row r="76" s="1" customFormat="1"/>
-    <row r="77" s="1" customFormat="1"/>
-    <row r="78" s="1" customFormat="1"/>
-    <row r="79" s="1" customFormat="1"/>
-    <row r="80" s="1" customFormat="1"/>
-    <row r="81" s="1" customFormat="1"/>
-    <row r="82" s="1" customFormat="1"/>
-    <row r="83" s="1" customFormat="1"/>
-    <row r="84" s="1" customFormat="1"/>
-    <row r="85" s="1" customFormat="1"/>
-    <row r="86" s="1" customFormat="1"/>
-    <row r="87" s="1" customFormat="1"/>
-    <row r="88" s="1" customFormat="1"/>
-    <row r="89" s="1" customFormat="1"/>
-    <row r="90" s="1" customFormat="1"/>
-    <row r="91" s="1" customFormat="1"/>
-    <row r="92" s="1" customFormat="1"/>
-    <row r="93" s="1" customFormat="1"/>
-    <row r="94" s="1" customFormat="1"/>
-    <row r="95" s="1" customFormat="1"/>
-    <row r="96" s="1" customFormat="1"/>
-    <row r="97" s="1" customFormat="1"/>
-    <row r="98" s="1" customFormat="1"/>
-    <row r="99" s="1" customFormat="1"/>
+    <row r="19" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B12:E12"/>
@@ -1121,7 +1104,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
@@ -1138,7 +1121,7 @@
     <col min="13" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="11"/>
       <c r="C1" s="34" t="s">
         <v>18</v>
@@ -1147,17 +1130,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C2" s="35" t="str">
         <f>Currency&amp;"_010_CMSSpreadsQuotes.xml"</f>
         <v>EUR_010_CMSSpreadsQuotes.xml</v>
       </c>
-      <c r="D2" s="37" t="e">
+      <c r="D2" s="37">
         <f>IF(Serialize,_xll.ohObjectSave(C6:L10,SerializationPath&amp;C2,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="23"/>
       <c r="C4" s="24" t="s">
         <v>8</v>
@@ -1190,7 +1173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="23"/>
       <c r="C5" s="25" t="s">
         <v>21</v>
@@ -1223,7 +1206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="44" t="s">
         <v>9</v>
       </c>
@@ -1268,7 +1251,7 @@
         <v>EURCMS30Y_5Yask_Quote#0001</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="45" t="s">
         <v>2</v>
       </c>
@@ -1313,7 +1296,7 @@
         <v>EURCMS30Y_10Yask_Quote#0001</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="45" t="s">
         <v>3</v>
       </c>
@@ -1358,7 +1341,7 @@
         <v>EURCMS30Y_15Yask_Quote#0001</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="45" t="s">
         <v>4</v>
       </c>
@@ -1403,7 +1386,7 @@
         <v>EURCMS30Y_20Yask_Quote#0001</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="46" t="s">
         <v>5</v>
       </c>
@@ -1448,7 +1431,7 @@
         <v>EURCMS30Y_30Yask_Quote#0001</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="44" t="str">
         <f>B6</f>
         <v>5Y</v>
@@ -1494,7 +1477,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="45" t="str">
         <f>B7</f>
         <v>10Y</v>
@@ -1540,7 +1523,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="45" t="str">
         <f>B8</f>
         <v>15Y</v>
@@ -1586,7 +1569,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="45" t="str">
         <f>B9</f>
         <v>20Y</v>
@@ -1632,7 +1615,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="46" t="str">
         <f>B10</f>
         <v>30Y</v>

--- a/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/010_Quotes/EUR_010_CmsSpreadsQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/010_Quotes/EUR_010_CmsSpreadsQuotes.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Currency</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>TickValue</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -915,8 +912,9 @@
       <c r="C8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>24</v>
+      <c r="D8" s="20" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\040_SwaptionVolBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -1135,9 +1133,9 @@
         <f>Currency&amp;"_010_CMSSpreadsQuotes.xml"</f>
         <v>EUR_010_CMSSpreadsQuotes.xml</v>
       </c>
-      <c r="D2" s="37">
-        <f>IF(Serialize,_xll.ohObjectSave(C6:L10,SerializationPath&amp;C2,FileOverwrite,Serialize),"--")</f>
-        <v>50</v>
+      <c r="D2" s="37" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(C6:L10,SerializationPath&amp;C2,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
